--- a/dados/2429 Prudencia jan-mar.xlsx
+++ b/dados/2429 Prudencia jan-mar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://incorporadoraampla.sharepoint.com/sites/Controladoria/Documentos Compartilhados/amplaGitHub/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{2F204289-99C5-4555-AA92-E86D2F477440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16794C63-C313-48FE-9A5C-E4CBA496735A}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2F204289-99C5-4555-AA92-E86D2F477440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63A02F5C-38CC-439E-967F-EAB9CE3B576C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7905" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C2EAA338-EC28-4369-9395-AF61BE10B4FC}"/>
+    <workbookView minimized="1" xWindow="-23895" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{C2EAA338-EC28-4369-9395-AF61BE10B4FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
@@ -2411,11 +2411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7685E717-DFE0-4950-B9E8-923B5CDAFB27}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5 H5:J5 B94:D95 H94:J95 B109:D109 H109:J109 B137:D137 H137:J137 B230:D230 H230:J230"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,7 +2508,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>5</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>6</v>
       </c>
@@ -2676,7 +2675,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>9</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>10</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>11</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>12</v>
       </c>
@@ -2880,7 +2879,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>13</v>
       </c>
@@ -2914,7 +2913,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>14</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>15</v>
       </c>
@@ -2982,7 +2981,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>16</v>
       </c>
@@ -3016,7 +3015,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>17</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>18</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>19</v>
       </c>
@@ -3118,7 +3117,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>20</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>21</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>22</v>
       </c>
@@ -3220,7 +3219,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>23</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>24</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>25</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>26</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>27</v>
       </c>
@@ -3390,7 +3389,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>28</v>
       </c>
@@ -3424,7 +3423,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>29</v>
       </c>
@@ -3458,7 +3457,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>30</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>31</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>32</v>
       </c>
@@ -3560,7 +3559,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>33</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>34</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>35</v>
       </c>
@@ -3662,7 +3661,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>36</v>
       </c>
@@ -3696,7 +3695,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>37</v>
       </c>
@@ -3730,7 +3729,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>38</v>
       </c>
@@ -3764,7 +3763,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>39</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>40</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>41</v>
       </c>
@@ -3866,7 +3865,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>42</v>
       </c>
@@ -3900,7 +3899,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>43</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>44</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>45</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>46</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>47</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>48</v>
       </c>
@@ -4104,7 +4103,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>49</v>
       </c>
@@ -4138,7 +4137,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>50</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>51</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>52</v>
       </c>
@@ -4240,7 +4239,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>53</v>
       </c>
@@ -4274,7 +4273,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>54</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>55</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>56</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>57</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>58</v>
       </c>
@@ -4444,7 +4443,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>59</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>60</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>61</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>62</v>
       </c>
@@ -4580,7 +4579,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <v>63</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>64</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>65</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>66</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
         <v>67</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <v>68</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>69</v>
       </c>
@@ -4818,7 +4817,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>70</v>
       </c>
@@ -4852,7 +4851,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>71</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <v>72</v>
       </c>
@@ -4920,7 +4919,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15">
         <v>73</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
         <v>74</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>75</v>
       </c>
@@ -5022,7 +5021,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>76</v>
       </c>
@@ -5056,7 +5055,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>77</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
         <v>78</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
         <v>79</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
         <v>80</v>
       </c>
@@ -5192,7 +5191,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>81</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>82</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <v>83</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>84</v>
       </c>
@@ -5325,7 +5324,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <v>85</v>
       </c>
@@ -5359,7 +5358,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
         <v>86</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <v>87</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>88</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>89</v>
       </c>
@@ -5554,7 +5553,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>92</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>93</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>94</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>95</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>96</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>97</v>
       </c>
@@ -5740,7 +5739,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>98</v>
       </c>
@@ -5771,7 +5770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
         <v>99</v>
       </c>
@@ -5802,7 +5801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
         <v>100</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15">
         <v>101</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
         <v>102</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15">
         <v>103</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
         <v>104</v>
       </c>
@@ -5991,7 +5990,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15">
         <v>106</v>
       </c>
@@ -6022,7 +6021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <v>107</v>
       </c>
@@ -6053,7 +6052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15">
         <v>108</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="15">
         <v>109</v>
       </c>
@@ -6115,7 +6114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="15">
         <v>110</v>
       </c>
@@ -6146,7 +6145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="15">
         <v>111</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="15">
         <v>112</v>
       </c>
@@ -6208,7 +6207,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="15">
         <v>113</v>
       </c>
@@ -6239,7 +6238,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="15">
         <v>114</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="15">
         <v>115</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="15">
         <v>116</v>
       </c>
@@ -6332,7 +6331,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="15">
         <v>117</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
         <v>118</v>
       </c>
@@ -6394,7 +6393,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
         <v>119</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
         <v>120</v>
       </c>
@@ -6456,7 +6455,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
         <v>121</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="15">
         <v>122</v>
       </c>
@@ -6518,7 +6517,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="15">
         <v>123</v>
       </c>
@@ -6549,7 +6548,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="15">
         <v>124</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="15">
         <v>125</v>
       </c>
@@ -6611,7 +6610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="15">
         <v>126</v>
       </c>
@@ -6642,7 +6641,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="15">
         <v>127</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
         <v>128</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="15">
         <v>129</v>
       </c>
@@ -6735,7 +6734,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="15">
         <v>130</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="15">
         <v>131</v>
       </c>
@@ -6797,7 +6796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="15">
         <v>132</v>
       </c>
@@ -6862,7 +6861,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="15">
         <v>134</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="15">
         <v>135</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="15">
         <v>136</v>
       </c>
@@ -6955,7 +6954,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="15">
         <v>137</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="15">
         <v>138</v>
       </c>
@@ -7017,7 +7016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
         <v>139</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="15">
         <v>140</v>
       </c>
@@ -7082,7 +7081,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="15">
         <v>141</v>
       </c>
@@ -7116,7 +7115,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="15">
         <v>142</v>
       </c>
@@ -7150,7 +7149,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="15">
         <v>143</v>
       </c>
@@ -7184,7 +7183,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="15">
         <v>144</v>
       </c>
@@ -7218,7 +7217,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="15">
         <v>145</v>
       </c>
@@ -7252,7 +7251,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="15">
         <v>146</v>
       </c>
@@ -7286,7 +7285,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="15">
         <v>147</v>
       </c>
@@ -7320,7 +7319,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="15">
         <v>148</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="15">
         <v>149</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="15">
         <v>150</v>
       </c>
@@ -7422,7 +7421,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="15">
         <v>151</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="15">
         <v>152</v>
       </c>
@@ -7490,7 +7489,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="15">
         <v>153</v>
       </c>
@@ -7524,7 +7523,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="15">
         <v>154</v>
       </c>
@@ -7558,7 +7557,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="15">
         <v>155</v>
       </c>
@@ -7592,7 +7591,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="15">
         <v>156</v>
       </c>
@@ -7626,7 +7625,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="15">
         <v>157</v>
       </c>
@@ -7660,7 +7659,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="15">
         <v>158</v>
       </c>
@@ -7694,7 +7693,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="15">
         <v>159</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="15">
         <v>160</v>
       </c>
@@ -7762,7 +7761,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="15">
         <v>161</v>
       </c>
@@ -7796,7 +7795,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="15">
         <v>162</v>
       </c>
@@ -7830,7 +7829,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="15">
         <v>163</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
         <v>164</v>
       </c>
@@ -7898,7 +7897,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="15">
         <v>165</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="15">
         <v>166</v>
       </c>
@@ -7966,7 +7965,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="15">
         <v>167</v>
       </c>
@@ -8000,7 +7999,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="15">
         <v>168</v>
       </c>
@@ -8034,7 +8033,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="15">
         <v>169</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="15">
         <v>170</v>
       </c>
@@ -8102,7 +8101,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="15">
         <v>171</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="15">
         <v>172</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="15">
         <v>173</v>
       </c>
@@ -8204,7 +8203,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="15">
         <v>174</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="15">
         <v>175</v>
       </c>
@@ -8272,7 +8271,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="15">
         <v>176</v>
       </c>
@@ -8306,7 +8305,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="15">
         <v>177</v>
       </c>
@@ -8340,7 +8339,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="15">
         <v>178</v>
       </c>
@@ -8374,7 +8373,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="15">
         <v>179</v>
       </c>
@@ -8408,7 +8407,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="15">
         <v>180</v>
       </c>
@@ -8442,7 +8441,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="15">
         <v>181</v>
       </c>
@@ -8476,7 +8475,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="15">
         <v>182</v>
       </c>
@@ -8510,7 +8509,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="15">
         <v>183</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="15">
         <v>184</v>
       </c>
@@ -8578,7 +8577,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="15">
         <v>185</v>
       </c>
@@ -8612,7 +8611,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="15">
         <v>186</v>
       </c>
@@ -8646,7 +8645,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="15">
         <v>187</v>
       </c>
@@ -8680,7 +8679,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="15">
         <v>188</v>
       </c>
@@ -8714,7 +8713,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="15">
         <v>189</v>
       </c>
@@ -8748,7 +8747,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="15">
         <v>190</v>
       </c>
@@ -8782,7 +8781,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="15">
         <v>191</v>
       </c>
@@ -8816,7 +8815,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="15">
         <v>192</v>
       </c>
@@ -8850,7 +8849,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="15">
         <v>193</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="15">
         <v>194</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="15">
         <v>195</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="15">
         <v>196</v>
       </c>
@@ -8986,7 +8985,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="15">
         <v>197</v>
       </c>
@@ -9020,7 +9019,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="15">
         <v>198</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="15">
         <v>199</v>
       </c>
@@ -9088,7 +9087,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="15">
         <v>200</v>
       </c>
@@ -9122,7 +9121,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="15">
         <v>201</v>
       </c>
@@ -9156,7 +9155,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="15">
         <v>202</v>
       </c>
@@ -9190,7 +9189,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="15">
         <v>203</v>
       </c>
@@ -9224,7 +9223,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="15">
         <v>204</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="15">
         <v>205</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="15">
         <v>206</v>
       </c>
@@ -9326,7 +9325,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="15">
         <v>207</v>
       </c>
@@ -9360,7 +9359,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="15">
         <v>208</v>
       </c>
@@ -9394,7 +9393,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="15">
         <v>209</v>
       </c>
@@ -9428,7 +9427,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="15">
         <v>210</v>
       </c>
@@ -9462,7 +9461,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="15">
         <v>211</v>
       </c>
@@ -9496,7 +9495,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="15">
         <v>212</v>
       </c>
@@ -9530,7 +9529,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="15">
         <v>213</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="15">
         <v>214</v>
       </c>
@@ -9598,7 +9597,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="15">
         <v>215</v>
       </c>
@@ -9632,7 +9631,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="15">
         <v>216</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="15">
         <v>217</v>
       </c>
@@ -9700,7 +9699,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="15">
         <v>218</v>
       </c>
@@ -9734,7 +9733,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="15">
         <v>219</v>
       </c>
@@ -9768,7 +9767,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="15">
         <v>220</v>
       </c>
@@ -9802,7 +9801,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="15">
         <v>221</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="15">
         <v>222</v>
       </c>
@@ -9870,7 +9869,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="15">
         <v>223</v>
       </c>
@@ -9904,7 +9903,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="15">
         <v>224</v>
       </c>
@@ -9935,7 +9934,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="15">
         <v>225</v>
       </c>
@@ -10000,7 +9999,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="15">
         <v>227</v>
       </c>
@@ -10072,16 +10071,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:J231" xr:uid="{7685E717-DFE0-4950-B9E8-923B5CDAFB27}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="debito fiador juros de obra - pf"/>
-        <filter val="Parcela PJ"/>
-        <filter val="pgto de saldo pj"/>
-        <filter val="tarifa caixa medição"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:J231" xr:uid="{7685E717-DFE0-4950-B9E8-923B5CDAFB27}"/>
   <mergeCells count="1">
     <mergeCell ref="B3:I3"/>
   </mergeCells>
@@ -10110,7 +10100,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D11 H10:J11 B18:D18 H18:J18 B27:D27 H27:J27"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11151,8 +11141,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98:D100 H98:J100 B104:D104 H104:J104 B120:D120 H120:J120"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15079,26 +15069,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5a5f483f-f768-438e-b4ef-63f46a7558dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dd8c73df-45bd-468c-aae5-f3faedcbd5e2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006C56FB2846673243A9735D5EC6051572" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="941ba21155b641a9d77936be19967558">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5a5f483f-f768-438e-b4ef-63f46a7558dd" xmlns:ns3="dd8c73df-45bd-468c-aae5-f3faedcbd5e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="469d177505629adaca6589b93d36bf5c" ns2:_="" ns3:_="">
     <xsd:import namespace="5a5f483f-f768-438e-b4ef-63f46a7558dd"/>
@@ -15293,26 +15263,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0825223-2C7D-4797-A314-F6957DB6A27A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5a5f483f-f768-438e-b4ef-63f46a7558dd"/>
-    <ds:schemaRef ds:uri="dd8c73df-45bd-468c-aae5-f3faedcbd5e2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1246CCEC-0DEC-4D6F-A217-935ADD40F756}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5a5f483f-f768-438e-b4ef-63f46a7558dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="dd8c73df-45bd-468c-aae5-f3faedcbd5e2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3F8109-51B1-4692-864E-6B54FF554F65}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15329,4 +15300,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1246CCEC-0DEC-4D6F-A217-935ADD40F756}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0825223-2C7D-4797-A314-F6957DB6A27A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5a5f483f-f768-438e-b4ef-63f46a7558dd"/>
+    <ds:schemaRef ds:uri="dd8c73df-45bd-468c-aae5-f3faedcbd5e2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dados/2429 Prudencia jan-mar.xlsx
+++ b/dados/2429 Prudencia jan-mar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://incorporadoraampla.sharepoint.com/sites/Controladoria/Documentos Compartilhados/amplaGitHub/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2F204289-99C5-4555-AA92-E86D2F477440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63A02F5C-38CC-439E-967F-EAB9CE3B576C}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{2F204289-99C5-4555-AA92-E86D2F477440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0E9424B-E370-4210-A01E-5C0D7D5D2D19}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-23895" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{C2EAA338-EC28-4369-9395-AF61BE10B4FC}"/>
+    <workbookView xWindow="-28920" yWindow="-1305" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C2EAA338-EC28-4369-9395-AF61BE10B4FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
@@ -1985,7 +1985,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2058,9 +2058,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2074,6 +2071,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2411,10 +2423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7685E717-DFE0-4950-B9E8-923B5CDAFB27}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:J8"/>
+    <sheetView topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="H234" sqref="H234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,16 +2452,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -2508,7 +2521,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -5225,7 +5238,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>82</v>
       </c>
@@ -5392,7 +5405,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <v>87</v>
       </c>
@@ -5423,7 +5436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>88</v>
       </c>
@@ -5454,7 +5467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>89</v>
       </c>
@@ -5485,7 +5498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <v>90</v>
       </c>
@@ -5519,7 +5532,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
         <v>91</v>
       </c>
@@ -5553,7 +5566,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>92</v>
       </c>
@@ -5584,7 +5597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>93</v>
       </c>
@@ -5615,7 +5628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>94</v>
       </c>
@@ -5646,7 +5659,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>95</v>
       </c>
@@ -5677,7 +5690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>96</v>
       </c>
@@ -5708,7 +5721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>97</v>
       </c>
@@ -5739,7 +5752,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>98</v>
       </c>
@@ -5770,7 +5783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
         <v>99</v>
       </c>
@@ -5801,7 +5814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
         <v>100</v>
       </c>
@@ -5832,7 +5845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15">
         <v>101</v>
       </c>
@@ -5863,7 +5876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
         <v>102</v>
       </c>
@@ -5894,7 +5907,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15">
         <v>103</v>
       </c>
@@ -5925,7 +5938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
         <v>104</v>
       </c>
@@ -5956,7 +5969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
         <v>105</v>
       </c>
@@ -5990,7 +6003,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15">
         <v>106</v>
       </c>
@@ -6021,7 +6034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <v>107</v>
       </c>
@@ -6052,7 +6065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15">
         <v>108</v>
       </c>
@@ -6083,7 +6096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="15">
         <v>109</v>
       </c>
@@ -6114,7 +6127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="15">
         <v>110</v>
       </c>
@@ -6145,7 +6158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="15">
         <v>111</v>
       </c>
@@ -6176,7 +6189,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="15">
         <v>112</v>
       </c>
@@ -6207,7 +6220,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="15">
         <v>113</v>
       </c>
@@ -6238,7 +6251,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="15">
         <v>114</v>
       </c>
@@ -6269,7 +6282,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="15">
         <v>115</v>
       </c>
@@ -6300,7 +6313,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="15">
         <v>116</v>
       </c>
@@ -6331,7 +6344,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="15">
         <v>117</v>
       </c>
@@ -6362,7 +6375,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
         <v>118</v>
       </c>
@@ -6393,7 +6406,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
         <v>119</v>
       </c>
@@ -6424,7 +6437,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
         <v>120</v>
       </c>
@@ -6455,7 +6468,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
         <v>121</v>
       </c>
@@ -6486,7 +6499,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="15">
         <v>122</v>
       </c>
@@ -6517,7 +6530,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="15">
         <v>123</v>
       </c>
@@ -6548,7 +6561,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="15">
         <v>124</v>
       </c>
@@ -6579,7 +6592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="15">
         <v>125</v>
       </c>
@@ -6610,7 +6623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="15">
         <v>126</v>
       </c>
@@ -6641,7 +6654,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="15">
         <v>127</v>
       </c>
@@ -6672,7 +6685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
         <v>128</v>
       </c>
@@ -6703,7 +6716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="15">
         <v>129</v>
       </c>
@@ -6734,7 +6747,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="15">
         <v>130</v>
       </c>
@@ -6765,7 +6778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="15">
         <v>131</v>
       </c>
@@ -6796,7 +6809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="15">
         <v>132</v>
       </c>
@@ -6827,7 +6840,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="15">
         <v>133</v>
       </c>
@@ -6861,7 +6874,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="15">
         <v>134</v>
       </c>
@@ -6892,7 +6905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="15">
         <v>135</v>
       </c>
@@ -6923,7 +6936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="15">
         <v>136</v>
       </c>
@@ -6954,7 +6967,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="15">
         <v>137</v>
       </c>
@@ -6985,7 +6998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="15">
         <v>138</v>
       </c>
@@ -7016,7 +7029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
         <v>139</v>
       </c>
@@ -9903,7 +9916,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="15">
         <v>224</v>
       </c>
@@ -9934,7 +9947,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="15">
         <v>225</v>
       </c>
@@ -9999,7 +10012,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="15">
         <v>227</v>
       </c>
@@ -10071,7 +10084,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:J231" xr:uid="{7685E717-DFE0-4950-B9E8-923B5CDAFB27}"/>
+  <autoFilter ref="A4:J231" xr:uid="{7685E717-DFE0-4950-B9E8-923B5CDAFB27}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="CR DESBLOQ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B3:I3"/>
   </mergeCells>
@@ -10125,16 +10144,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -11141,8 +11160,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11167,16 +11186,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -11206,59 +11225,61 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="B5" s="4">
-        <v>45721</v>
+        <v>45735</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>571</v>
       </c>
       <c r="F5" s="11">
         <f>LEN(E5)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G5" s="11" t="str">
         <f>LEFT(E5,F5-1)</f>
-        <v/>
-      </c>
-      <c r="H5" s="30"/>
+        <v xml:space="preserve">833.386,83 </v>
+      </c>
+      <c r="H5" s="19">
+        <v>833386.83</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="B6" s="4">
-        <v>45721</v>
+        <v>45741</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" s="11">
+        <f>LEN(E6)</f>
         <v>12</v>
       </c>
-      <c r="F6" s="11">
-        <f t="shared" ref="F6:F69" si="0">LEN(E6)</f>
-        <v>6</v>
-      </c>
       <c r="G6" s="11" t="str">
-        <f t="shared" ref="G6:G69" si="1">LEFT(E6,F6-1)</f>
-        <v xml:space="preserve">0,00 </v>
+        <f>LEFT(E6,F6-1)</f>
+        <v xml:space="preserve">504.152,39 </v>
       </c>
       <c r="H6" s="18">
-        <v>0</v>
+        <v>504152.39</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>12</v>
@@ -11266,123 +11287,126 @@
     </row>
     <row r="7" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B7" s="4">
-        <v>45722</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6" t="s">
+        <v>45741</v>
+      </c>
+      <c r="C7" s="8">
+        <v>977994</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F7" s="11">
+        <f>LEN(E7)</f>
         <v>12</v>
       </c>
-      <c r="F7" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="G7" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">0,00 </v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>12</v>
+        <f>LEFT(E7,F7-1)</f>
+        <v xml:space="preserve">504.000,00 </v>
+      </c>
+      <c r="H7" s="19">
+        <v>504000</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4">
-        <v>45723</v>
+        <v>45734</v>
       </c>
       <c r="C8" s="5">
-        <v>0</v>
+        <v>764647</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="F8" s="11">
+        <f>LEN(E8)</f>
         <v>12</v>
       </c>
-      <c r="F8" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="G8" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">0,00 </v>
+        <f>LEFT(E8,F8-1)</f>
+        <v xml:space="preserve">385.006,39 </v>
       </c>
       <c r="H8" s="18">
-        <v>0</v>
+        <v>385006.39</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>12</v>
+        <v>570</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B9" s="4">
-        <v>45726</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6" t="s">
+        <v>45734</v>
+      </c>
+      <c r="C9" s="8">
+        <v>477079</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" s="11">
+        <f>LEN(E9)</f>
         <v>12</v>
       </c>
-      <c r="F9" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="G9" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">0,00 </v>
-      </c>
-      <c r="H9" s="18">
-        <v>0</v>
+        <f>LEFT(E9,F9-1)</f>
+        <v xml:space="preserve">300.000,00 </v>
+      </c>
+      <c r="H9" s="19">
+        <v>300000</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>12</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B10" s="4">
-        <v>45727</v>
+        <v>45736</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="F10" s="11">
+        <f>LEN(E10)</f>
         <v>12</v>
       </c>
-      <c r="F10" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="G10" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">0,00 </v>
+        <f>LEFT(E10,F10-1)</f>
+        <v xml:space="preserve">200.000,00 </v>
       </c>
       <c r="H10" s="18">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>12</v>
@@ -11390,61 +11414,61 @@
     </row>
     <row r="11" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="B11" s="4">
-        <v>45728</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6" t="s">
+        <v>45740</v>
+      </c>
+      <c r="C11" s="8">
+        <v>297920</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="F11" s="11">
+        <f>LEN(E11)</f>
         <v>12</v>
       </c>
-      <c r="F11" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="G11" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">0,00 </v>
-      </c>
-      <c r="H11" s="18">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>12</v>
+        <f>LEFT(E11,F11-1)</f>
+        <v xml:space="preserve">130.000,00 </v>
+      </c>
+      <c r="H11" s="19">
+        <v>130000</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="B12" s="4">
-        <v>45729</v>
+        <v>45740</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="F12" s="11">
+        <f>LEN(E12)</f>
         <v>12</v>
       </c>
-      <c r="F12" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="G12" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">0,00 </v>
+        <f>LEFT(E12,F12-1)</f>
+        <v xml:space="preserve">129.212,06 </v>
       </c>
       <c r="H12" s="18">
-        <v>0</v>
+        <v>129212.06</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>12</v>
@@ -11452,1098 +11476,1101 @@
     </row>
     <row r="13" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B13" s="4">
-        <v>45730</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6" t="s">
+        <v>45736</v>
+      </c>
+      <c r="C13" s="8">
+        <v>100947</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F13" s="11">
+        <f>LEN(E13)</f>
         <v>12</v>
       </c>
-      <c r="F13" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="G13" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">0,00 </v>
-      </c>
-      <c r="H13" s="18">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>12</v>
+        <f>LEFT(E13,F13-1)</f>
+        <v xml:space="preserve">100.000,00 </v>
+      </c>
+      <c r="H13" s="19">
+        <v>100000</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="B14" s="4">
-        <v>45733</v>
-      </c>
-      <c r="C14" s="5">
-        <v>12311</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>403</v>
+        <v>45736</v>
+      </c>
+      <c r="C14" s="8">
+        <v>207651</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>572</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>LEN(E14)</f>
+        <v>12</v>
       </c>
       <c r="G14" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">3.692,57 </v>
-      </c>
-      <c r="H14" s="18">
-        <v>3692.57</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>403</v>
+        <f>LEFT(E14,F14-1)</f>
+        <v xml:space="preserve">100.000,00 </v>
+      </c>
+      <c r="H14" s="19">
+        <v>100000</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>99</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45734</v>
+      </c>
+      <c r="C15" s="8">
+        <v>489757</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F15" s="11">
+        <f>LEN(E15)</f>
         <v>11</v>
       </c>
-      <c r="B15" s="4">
-        <v>45733</v>
-      </c>
-      <c r="C15" s="5">
-        <v>12311</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="F15" s="11">
-        <f t="shared" si="0"/>
+      <c r="G15" s="11" t="str">
+        <f>LEFT(E15,F15-1)</f>
+        <v xml:space="preserve">55.000,00 </v>
+      </c>
+      <c r="H15" s="19">
+        <v>55000</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>11</v>
-      </c>
-      <c r="G15" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">10.700,05 </v>
-      </c>
-      <c r="H15" s="18">
-        <v>10700.05</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>12</v>
       </c>
       <c r="B16" s="4">
         <v>45733</v>
       </c>
       <c r="C16" s="5">
-        <v>12512</v>
+        <v>12311</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>LEN(E16)</f>
+        <v>11</v>
       </c>
       <c r="G16" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">2.874,65 </v>
+        <f>LEFT(E16,F16-1)</f>
+        <v xml:space="preserve">10.700,05 </v>
       </c>
       <c r="H16" s="18">
-        <v>2874.65</v>
+        <v>10700.05</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4">
         <v>45733</v>
       </c>
       <c r="C17" s="5">
-        <v>12512</v>
+        <v>12311</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E17)</f>
+        <v>10</v>
       </c>
       <c r="G17" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">14.403,47 </v>
+        <f>LEFT(E17,F17-1)</f>
+        <v xml:space="preserve">3.692,57 </v>
       </c>
       <c r="H17" s="18">
-        <v>14403.47</v>
+        <v>3692.57</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4">
         <v>45733</v>
       </c>
       <c r="C18" s="5">
-        <v>65937</v>
+        <v>12512</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>LEN(E18)</f>
+        <v>11</v>
       </c>
       <c r="G18" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">687,28 </v>
+        <f>LEFT(E18,F18-1)</f>
+        <v xml:space="preserve">14.403,47 </v>
       </c>
       <c r="H18" s="18">
-        <v>687.28</v>
+        <v>14403.47</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4">
         <v>45733</v>
       </c>
       <c r="C19" s="5">
-        <v>65937</v>
+        <v>12512</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F19" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E19)</f>
+        <v>10</v>
       </c>
       <c r="G19" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">16.975,05 </v>
+        <f>LEFT(E19,F19-1)</f>
+        <v xml:space="preserve">2.874,65 </v>
       </c>
       <c r="H19" s="18">
-        <v>16975.05</v>
+        <v>2874.65</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4">
         <v>45733</v>
       </c>
       <c r="C20" s="5">
-        <v>102175</v>
+        <v>65937</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>LEN(E20)</f>
+        <v>11</v>
       </c>
       <c r="G20" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">778,99 </v>
+        <f>LEFT(E20,F20-1)</f>
+        <v xml:space="preserve">16.975,05 </v>
       </c>
       <c r="H20" s="18">
-        <v>778.99</v>
+        <v>16975.05</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4">
         <v>45733</v>
       </c>
       <c r="C21" s="5">
-        <v>102175</v>
+        <v>65937</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E21)</f>
+        <v>8</v>
       </c>
       <c r="G21" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.449,95 </v>
+        <f>LEFT(E21,F21-1)</f>
+        <v xml:space="preserve">687,28 </v>
       </c>
       <c r="H21" s="18">
-        <v>12449.95</v>
+        <v>687.28</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4">
         <v>45733</v>
       </c>
       <c r="C22" s="5">
-        <v>249744</v>
+        <v>102175</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F22" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E22)</f>
         <v>11</v>
       </c>
       <c r="G22" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">13.971,17 </v>
+        <f>LEFT(E22,F22-1)</f>
+        <v xml:space="preserve">12.449,95 </v>
       </c>
       <c r="H22" s="18">
-        <v>13971.17</v>
+        <v>12449.95</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4">
         <v>45733</v>
       </c>
       <c r="C23" s="5">
-        <v>249792</v>
+        <v>102175</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E23)</f>
+        <v>8</v>
       </c>
       <c r="G23" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">14.373,14 </v>
+        <f>LEFT(E23,F23-1)</f>
+        <v xml:space="preserve">778,99 </v>
       </c>
       <c r="H23" s="18">
-        <v>14373.14</v>
+        <v>778.99</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24" s="4">
         <v>45733</v>
       </c>
       <c r="C24" s="5">
-        <v>249973</v>
+        <v>249744</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F24" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>LEN(E24)</f>
+        <v>11</v>
       </c>
       <c r="G24" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">1.471,10 </v>
+        <f>LEFT(E24,F24-1)</f>
+        <v xml:space="preserve">13.971,17 </v>
       </c>
       <c r="H24" s="18">
-        <v>1471.1</v>
+        <v>13971.17</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="4">
         <v>45733</v>
       </c>
       <c r="C25" s="5">
-        <v>249973</v>
+        <v>249792</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F25" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E25)</f>
         <v>11</v>
       </c>
       <c r="G25" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">14.252,52 </v>
+        <f>LEFT(E25,F25-1)</f>
+        <v xml:space="preserve">14.373,14 </v>
       </c>
       <c r="H25" s="18">
-        <v>14252.52</v>
+        <v>14373.14</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="4">
         <v>45733</v>
       </c>
       <c r="C26" s="5">
-        <v>250115</v>
+        <v>249973</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F26" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E26)</f>
         <v>11</v>
       </c>
       <c r="G26" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">13.153,59 </v>
+        <f>LEFT(E26,F26-1)</f>
+        <v xml:space="preserve">14.252,52 </v>
       </c>
       <c r="H26" s="18">
-        <v>13153.59</v>
+        <v>14252.52</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B27" s="4">
         <v>45733</v>
       </c>
       <c r="C27" s="5">
-        <v>250140</v>
+        <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>428</v>
+        <v>174</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>561</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E27)</f>
         <v>11</v>
       </c>
       <c r="G27" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">14.057,67 </v>
-      </c>
-      <c r="H27" s="18">
-        <v>14057.67</v>
+        <f>LEFT(E27,F27-1)</f>
+        <v xml:space="preserve">14.162,91 </v>
+      </c>
+      <c r="H27" s="19">
+        <v>14162.91</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B28" s="4">
         <v>45733</v>
       </c>
       <c r="C28" s="5">
-        <v>250188</v>
+        <v>249973</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F28" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E28)</f>
+        <v>10</v>
       </c>
       <c r="G28" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">13.007,73 </v>
+        <f>LEFT(E28,F28-1)</f>
+        <v xml:space="preserve">1.471,10 </v>
       </c>
       <c r="H28" s="18">
-        <v>13007.73</v>
+        <v>1471.1</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B29" s="4">
         <v>45733</v>
       </c>
       <c r="C29" s="5">
-        <v>250440</v>
+        <v>250115</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F29" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E29)</f>
         <v>11</v>
       </c>
       <c r="G29" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.686,14 </v>
+        <f>LEFT(E29,F29-1)</f>
+        <v xml:space="preserve">13.153,59 </v>
       </c>
       <c r="H29" s="18">
-        <v>12686.14</v>
+        <v>13153.59</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4">
         <v>45733</v>
       </c>
       <c r="C30" s="5">
-        <v>251132</v>
+        <v>250140</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F30" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E30)</f>
         <v>11</v>
       </c>
       <c r="G30" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">14.530,64 </v>
+        <f>LEFT(E30,F30-1)</f>
+        <v xml:space="preserve">14.057,67 </v>
       </c>
       <c r="H30" s="18">
-        <v>14530.64</v>
+        <v>14057.67</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B31" s="4">
         <v>45733</v>
       </c>
       <c r="C31" s="5">
-        <v>251134</v>
+        <v>250188</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F31" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E31)</f>
         <v>11</v>
       </c>
       <c r="G31" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">14.057,67 </v>
+        <f>LEFT(E31,F31-1)</f>
+        <v xml:space="preserve">13.007,73 </v>
       </c>
       <c r="H31" s="18">
-        <v>14057.67</v>
+        <v>13007.73</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B32" s="4">
         <v>45733</v>
       </c>
       <c r="C32" s="5">
-        <v>251247</v>
+        <v>250440</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F32" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E32)</f>
         <v>11</v>
       </c>
       <c r="G32" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.609,46 </v>
+        <f>LEFT(E32,F32-1)</f>
+        <v xml:space="preserve">12.686,14 </v>
       </c>
       <c r="H32" s="18">
-        <v>12609.46</v>
+        <v>12686.14</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B33" s="4">
         <v>45733</v>
       </c>
       <c r="C33" s="5">
-        <v>254390</v>
+        <v>251132</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F33" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>LEN(E33)</f>
+        <v>11</v>
       </c>
       <c r="G33" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">956,06 </v>
+        <f>LEFT(E33,F33-1)</f>
+        <v xml:space="preserve">14.530,64 </v>
       </c>
       <c r="H33" s="18">
-        <v>956.06</v>
+        <v>14530.64</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B34" s="4">
         <v>45733</v>
       </c>
       <c r="C34" s="5">
-        <v>254390</v>
+        <v>251134</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="F34" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E34)</f>
         <v>11</v>
       </c>
       <c r="G34" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">13.924,85 </v>
+        <f>LEFT(E34,F34-1)</f>
+        <v xml:space="preserve">14.057,67 </v>
       </c>
       <c r="H34" s="18">
-        <v>13924.85</v>
+        <v>14057.67</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B35" s="4">
         <v>45733</v>
       </c>
       <c r="C35" s="5">
-        <v>262040</v>
+        <v>251247</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F35" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E35)</f>
         <v>11</v>
       </c>
       <c r="G35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">19.126,61 </v>
+        <f>LEFT(E35,F35-1)</f>
+        <v xml:space="preserve">12.609,46 </v>
       </c>
       <c r="H35" s="18">
-        <v>19126.61</v>
+        <v>12609.46</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B36" s="4">
         <v>45733</v>
       </c>
       <c r="C36" s="5">
-        <v>279836</v>
+        <v>254390</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>LEN(E36)</f>
+        <v>11</v>
       </c>
       <c r="G36" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">2.687,19 </v>
+        <f>LEFT(E36,F36-1)</f>
+        <v xml:space="preserve">13.924,85 </v>
       </c>
       <c r="H36" s="18">
-        <v>2687.19</v>
+        <v>13924.85</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B37" s="4">
         <v>45733</v>
       </c>
       <c r="C37" s="5">
-        <v>279836</v>
+        <v>254390</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E37)</f>
+        <v>8</v>
       </c>
       <c r="G37" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">17.085,68 </v>
+        <f>LEFT(E37,F37-1)</f>
+        <v xml:space="preserve">956,06 </v>
       </c>
       <c r="H37" s="18">
-        <v>17085.68</v>
+        <v>956.06</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4">
         <v>45733</v>
       </c>
       <c r="C38" s="5">
-        <v>287582</v>
+        <v>262040</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>LEN(E38)</f>
+        <v>11</v>
       </c>
       <c r="G38" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">8.966,91 </v>
+        <f>LEFT(E38,F38-1)</f>
+        <v xml:space="preserve">19.126,61 </v>
       </c>
       <c r="H38" s="18">
-        <v>8966.91</v>
+        <v>19126.61</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4">
         <v>45733</v>
       </c>
       <c r="C39" s="5">
-        <v>292437</v>
+        <v>279836</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F39" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>LEN(E39)</f>
+        <v>11</v>
       </c>
       <c r="G39" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">4.750,42 </v>
+        <f>LEFT(E39,F39-1)</f>
+        <v xml:space="preserve">17.085,68 </v>
       </c>
       <c r="H39" s="18">
-        <v>4750.42</v>
+        <v>17085.68</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B40" s="4">
         <v>45733</v>
       </c>
       <c r="C40" s="5">
-        <v>292437</v>
+        <v>279836</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E40)</f>
+        <v>10</v>
       </c>
       <c r="G40" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">17.343,43 </v>
+        <f>LEFT(E40,F40-1)</f>
+        <v xml:space="preserve">2.687,19 </v>
       </c>
       <c r="H40" s="18">
-        <v>17343.43</v>
+        <v>2687.19</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B41" s="4">
         <v>45733</v>
       </c>
       <c r="C41" s="5">
-        <v>296895</v>
+        <v>287582</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F41" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E41)</f>
+        <v>10</v>
       </c>
       <c r="G41" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">17.319,68 </v>
+        <f>LEFT(E41,F41-1)</f>
+        <v xml:space="preserve">8.966,91 </v>
       </c>
       <c r="H41" s="18">
-        <v>17319.68</v>
+        <v>8966.91</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B42" s="4">
         <v>45733</v>
       </c>
       <c r="C42" s="5">
-        <v>299493</v>
+        <v>292437</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F42" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>LEN(E42)</f>
+        <v>11</v>
       </c>
       <c r="G42" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">1.704,08 </v>
+        <f>LEFT(E42,F42-1)</f>
+        <v xml:space="preserve">17.343,43 </v>
       </c>
       <c r="H42" s="18">
-        <v>1704.08</v>
+        <v>17343.43</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B43" s="4">
         <v>45733</v>
       </c>
       <c r="C43" s="5">
-        <v>299493</v>
+        <v>292437</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E43)</f>
+        <v>10</v>
       </c>
       <c r="G43" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">17.428,09 </v>
+        <f>LEFT(E43,F43-1)</f>
+        <v xml:space="preserve">4.750,42 </v>
       </c>
       <c r="H43" s="18">
-        <v>17428.09</v>
+        <v>4750.42</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B44" s="4">
         <v>45733</v>
       </c>
       <c r="C44" s="5">
-        <v>783642</v>
+        <v>296895</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F44" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E44)</f>
         <v>11</v>
       </c>
       <c r="G44" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.812,86 </v>
+        <f>LEFT(E44,F44-1)</f>
+        <v xml:space="preserve">17.319,68 </v>
       </c>
       <c r="H44" s="18">
-        <v>12812.86</v>
+        <v>17319.68</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4">
         <v>45733</v>
       </c>
       <c r="C45" s="5">
-        <v>783838</v>
+        <v>299493</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F45" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E45)</f>
         <v>11</v>
       </c>
       <c r="G45" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.440,91 </v>
+        <f>LEFT(E45,F45-1)</f>
+        <v xml:space="preserve">17.428,09 </v>
       </c>
       <c r="H45" s="18">
-        <v>12440.91</v>
+        <v>17428.09</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B46" s="4">
         <v>45733</v>
       </c>
       <c r="C46" s="5">
-        <v>784415</v>
+        <v>299493</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F46" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E46)</f>
+        <v>10</v>
       </c>
       <c r="G46" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">14.157,48 </v>
+        <f>LEFT(E46,F46-1)</f>
+        <v xml:space="preserve">1.704,08 </v>
       </c>
       <c r="H46" s="18">
-        <v>14157.48</v>
+        <v>1704.08</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B47" s="4">
         <v>45733</v>
       </c>
       <c r="C47" s="5">
-        <v>784545</v>
+        <v>783642</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F47" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E47)</f>
         <v>11</v>
       </c>
       <c r="G47" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.440,91 </v>
+        <f>LEFT(E47,F47-1)</f>
+        <v xml:space="preserve">12.812,86 </v>
       </c>
       <c r="H47" s="18">
-        <v>12440.91</v>
+        <v>12812.86</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B48" s="4">
         <v>45733</v>
       </c>
       <c r="C48" s="5">
-        <v>784787</v>
+        <v>783838</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>8</v>
@@ -12552,1836 +12579,1833 @@
         <v>463</v>
       </c>
       <c r="F48" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E48)</f>
         <v>11</v>
       </c>
       <c r="G48" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(E48,F48-1)</f>
         <v xml:space="preserve">12.440,91 </v>
       </c>
       <c r="H48" s="18">
         <v>12440.91</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B49" s="4">
         <v>45733</v>
       </c>
       <c r="C49" s="5">
-        <v>785462</v>
+        <v>784415</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F49" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>LEN(E49)</f>
+        <v>11</v>
       </c>
       <c r="G49" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">261,43 </v>
+        <f>LEFT(E49,F49-1)</f>
+        <v xml:space="preserve">14.157,48 </v>
       </c>
       <c r="H49" s="18">
-        <v>261.43</v>
+        <v>14157.48</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B50" s="4">
         <v>45733</v>
       </c>
       <c r="C50" s="5">
-        <v>785462</v>
+        <v>784545</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F50" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E50)</f>
         <v>11</v>
       </c>
       <c r="G50" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.440,84 </v>
+        <f>LEFT(E50,F50-1)</f>
+        <v xml:space="preserve">12.440,91 </v>
       </c>
       <c r="H50" s="18">
-        <v>12440.84</v>
+        <v>12440.91</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B51" s="4">
         <v>45733</v>
       </c>
       <c r="C51" s="5">
-        <v>785483</v>
+        <v>784787</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F51" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E51)</f>
         <v>11</v>
       </c>
       <c r="G51" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">11.115,65 </v>
+        <f>LEFT(E51,F51-1)</f>
+        <v xml:space="preserve">12.440,91 </v>
       </c>
       <c r="H51" s="18">
-        <v>11115.65</v>
+        <v>12440.91</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B52" s="4">
         <v>45733</v>
       </c>
       <c r="C52" s="5">
-        <v>785568</v>
+        <v>785462</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F52" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>LEN(E52)</f>
+        <v>11</v>
       </c>
       <c r="G52" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">270,07 </v>
+        <f>LEFT(E52,F52-1)</f>
+        <v xml:space="preserve">12.440,84 </v>
       </c>
       <c r="H52" s="18">
-        <v>270.07</v>
+        <v>12440.84</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B53" s="4">
         <v>45733</v>
       </c>
       <c r="C53" s="5">
-        <v>785568</v>
+        <v>785462</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F53" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E53)</f>
+        <v>8</v>
       </c>
       <c r="G53" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">11.935,14 </v>
+        <f>LEFT(E53,F53-1)</f>
+        <v xml:space="preserve">261,43 </v>
       </c>
       <c r="H53" s="18">
-        <v>11935.14</v>
+        <v>261.43</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B54" s="4">
         <v>45733</v>
       </c>
       <c r="C54" s="5">
-        <v>785787</v>
+        <v>785483</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="F54" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E54)</f>
         <v>11</v>
       </c>
       <c r="G54" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.440,91 </v>
+        <f>LEFT(E54,F54-1)</f>
+        <v xml:space="preserve">11.115,65 </v>
       </c>
       <c r="H54" s="18">
-        <v>12440.91</v>
+        <v>11115.65</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B55" s="4">
         <v>45733</v>
       </c>
       <c r="C55" s="5">
-        <v>785933</v>
+        <v>785568</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F55" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E55)</f>
         <v>11</v>
       </c>
       <c r="G55" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.667,60 </v>
+        <f>LEFT(E55,F55-1)</f>
+        <v xml:space="preserve">11.935,14 </v>
       </c>
       <c r="H55" s="18">
-        <v>12667.6</v>
+        <v>11935.14</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B56" s="4">
         <v>45733</v>
       </c>
       <c r="C56" s="5">
-        <v>786173</v>
+        <v>785568</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="F56" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E56)</f>
+        <v>8</v>
       </c>
       <c r="G56" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.440,91 </v>
+        <f>LEFT(E56,F56-1)</f>
+        <v xml:space="preserve">270,07 </v>
       </c>
       <c r="H56" s="18">
-        <v>12440.91</v>
+        <v>270.07</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B57" s="4">
         <v>45733</v>
       </c>
       <c r="C57" s="5">
-        <v>786220</v>
+        <v>785787</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="F57" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E57)</f>
         <v>11</v>
       </c>
       <c r="G57" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.562,80 </v>
+        <f>LEFT(E57,F57-1)</f>
+        <v xml:space="preserve">12.440,91 </v>
       </c>
       <c r="H57" s="18">
-        <v>12562.8</v>
+        <v>12440.91</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B58" s="4">
         <v>45733</v>
       </c>
       <c r="C58" s="5">
-        <v>786283</v>
+        <v>785933</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F58" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E58)</f>
         <v>11</v>
       </c>
       <c r="G58" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">11.727,60 </v>
+        <f>LEFT(E58,F58-1)</f>
+        <v xml:space="preserve">12.667,60 </v>
       </c>
       <c r="H58" s="18">
-        <v>11727.6</v>
+        <v>12667.6</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B59" s="4">
         <v>45733</v>
       </c>
       <c r="C59" s="5">
-        <v>786796</v>
+        <v>786173</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="F59" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E59)</f>
         <v>11</v>
       </c>
       <c r="G59" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.396,28 </v>
+        <f>LEFT(E59,F59-1)</f>
+        <v xml:space="preserve">12.440,91 </v>
       </c>
       <c r="H59" s="18">
-        <v>12396.28</v>
+        <v>12440.91</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B60" s="4">
         <v>45733</v>
       </c>
       <c r="C60" s="5">
-        <v>786845</v>
+        <v>786220</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F60" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>LEN(E60)</f>
+        <v>11</v>
       </c>
       <c r="G60" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">646,50 </v>
+        <f>LEFT(E60,F60-1)</f>
+        <v xml:space="preserve">12.562,80 </v>
       </c>
       <c r="H60" s="18">
-        <v>646.5</v>
+        <v>12562.8</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B61" s="4">
         <v>45733</v>
       </c>
       <c r="C61" s="5">
-        <v>786845</v>
+        <v>786283</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F61" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E61)</f>
         <v>11</v>
       </c>
       <c r="G61" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">10.495,96 </v>
+        <f>LEFT(E61,F61-1)</f>
+        <v xml:space="preserve">11.727,60 </v>
       </c>
       <c r="H61" s="18">
-        <v>10495.96</v>
+        <v>11727.6</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B62" s="4">
         <v>45733</v>
       </c>
       <c r="C62" s="5">
-        <v>787101</v>
+        <v>786796</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F62" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>LEN(E62)</f>
+        <v>11</v>
       </c>
       <c r="G62" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">5.592,35 </v>
+        <f>LEFT(E62,F62-1)</f>
+        <v xml:space="preserve">12.396,28 </v>
       </c>
       <c r="H62" s="18">
-        <v>5592.35</v>
+        <v>12396.28</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B63" s="4">
         <v>45733</v>
       </c>
       <c r="C63" s="5">
-        <v>787101</v>
+        <v>786845</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F63" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>LEN(E63)</f>
+        <v>11</v>
       </c>
       <c r="G63" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">9.980,84 </v>
+        <f>LEFT(E63,F63-1)</f>
+        <v xml:space="preserve">10.495,96 </v>
       </c>
       <c r="H63" s="18">
-        <v>9980.84</v>
+        <v>10495.96</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B64" s="4">
         <v>45733</v>
       </c>
       <c r="C64" s="5">
-        <v>787456</v>
+        <v>786845</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F64" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E64)</f>
+        <v>8</v>
       </c>
       <c r="G64" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.562,80 </v>
+        <f>LEFT(E64,F64-1)</f>
+        <v xml:space="preserve">646,50 </v>
       </c>
       <c r="H64" s="18">
-        <v>12562.8</v>
+        <v>646.5</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B65" s="4">
         <v>45733</v>
       </c>
       <c r="C65" s="5">
-        <v>787935</v>
+        <v>787101</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F65" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>LEN(E65)</f>
+        <v>10</v>
       </c>
       <c r="G65" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">10.454,01 </v>
+        <f>LEFT(E65,F65-1)</f>
+        <v xml:space="preserve">9.980,84 </v>
       </c>
       <c r="H65" s="18">
-        <v>10454.01</v>
+        <v>9980.84</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B66" s="4">
         <v>45733</v>
       </c>
       <c r="C66" s="5">
-        <v>787939</v>
+        <v>787101</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F66" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>LEN(E66)</f>
+        <v>10</v>
       </c>
       <c r="G66" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">333,12 </v>
+        <f>LEFT(E66,F66-1)</f>
+        <v xml:space="preserve">5.592,35 </v>
       </c>
       <c r="H66" s="18">
-        <v>333.12</v>
+        <v>5592.35</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B67" s="4">
         <v>45733</v>
       </c>
       <c r="C67" s="5">
-        <v>787939</v>
+        <v>787456</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="F67" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>LEN(E67)</f>
+        <v>11</v>
       </c>
       <c r="G67" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">7.488,15 </v>
+        <f>LEFT(E67,F67-1)</f>
+        <v xml:space="preserve">12.562,80 </v>
       </c>
       <c r="H67" s="18">
-        <v>7488.15</v>
+        <v>12562.8</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B68" s="4">
         <v>45733</v>
       </c>
       <c r="C68" s="5">
-        <v>787944</v>
+        <v>787935</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" si="0"/>
+        <f>LEN(E68)</f>
         <v>11</v>
       </c>
       <c r="G68" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">12.440,91 </v>
+        <f>LEFT(E68,F68-1)</f>
+        <v xml:space="preserve">10.454,01 </v>
       </c>
       <c r="H68" s="18">
-        <v>12440.91</v>
+        <v>10454.01</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B69" s="4">
         <v>45733</v>
       </c>
       <c r="C69" s="5">
-        <v>788456</v>
+        <v>787939</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>LEN(E69)</f>
+        <v>10</v>
       </c>
       <c r="G69" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">532,98 </v>
+        <f>LEFT(E69,F69-1)</f>
+        <v xml:space="preserve">7.488,15 </v>
       </c>
       <c r="H69" s="18">
-        <v>532.98</v>
+        <v>7488.15</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B70" s="4">
         <v>45733</v>
       </c>
       <c r="C70" s="5">
-        <v>788456</v>
+        <v>787939</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" ref="F70:F126" si="2">LEN(E70)</f>
-        <v>11</v>
+        <f>LEN(E70)</f>
+        <v>8</v>
       </c>
       <c r="G70" s="11" t="str">
-        <f t="shared" ref="G70:G126" si="3">LEFT(E70,F70-1)</f>
-        <v xml:space="preserve">11.586,68 </v>
+        <f>LEFT(E70,F70-1)</f>
+        <v xml:space="preserve">333,12 </v>
       </c>
       <c r="H70" s="18">
-        <v>11586.68</v>
+        <v>333.12</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B71" s="4">
         <v>45733</v>
       </c>
       <c r="C71" s="5">
-        <v>788598</v>
+        <v>787944</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>509</v>
+        <v>463</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>LEN(E71)</f>
+        <v>11</v>
       </c>
       <c r="G71" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">3.614,24 </v>
+        <f>LEFT(E71,F71-1)</f>
+        <v xml:space="preserve">12.440,91 </v>
       </c>
       <c r="H71" s="18">
-        <v>3614.24</v>
+        <v>12440.91</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B72" s="4">
         <v>45733</v>
       </c>
       <c r="C72" s="5">
-        <v>788598</v>
+        <v>788456</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E72)</f>
         <v>11</v>
       </c>
       <c r="G72" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">12.813,78 </v>
+        <f>LEFT(E72,F72-1)</f>
+        <v xml:space="preserve">11.586,68 </v>
       </c>
       <c r="H72" s="18">
-        <v>12813.78</v>
+        <v>11586.68</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B73" s="4">
         <v>45733</v>
       </c>
       <c r="C73" s="5">
-        <v>788905</v>
+        <v>788456</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>LEN(E73)</f>
+        <v>8</v>
       </c>
       <c r="G73" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">1.164,32 </v>
+        <f>LEFT(E73,F73-1)</f>
+        <v xml:space="preserve">532,98 </v>
       </c>
       <c r="H73" s="18">
-        <v>1164.32</v>
+        <v>532.98</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B74" s="4">
         <v>45733</v>
       </c>
       <c r="C74" s="5">
-        <v>788905</v>
+        <v>788598</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F74" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E74)</f>
         <v>11</v>
       </c>
       <c r="G74" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">12.490,94 </v>
+        <f>LEFT(E74,F74-1)</f>
+        <v xml:space="preserve">12.813,78 </v>
       </c>
       <c r="H74" s="18">
-        <v>12490.94</v>
+        <v>12813.78</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B75" s="4">
         <v>45733</v>
       </c>
       <c r="C75" s="5">
-        <v>789503</v>
+        <v>788598</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>LEN(E75)</f>
+        <v>10</v>
       </c>
       <c r="G75" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">130,18 </v>
+        <f>LEFT(E75,F75-1)</f>
+        <v xml:space="preserve">3.614,24 </v>
       </c>
       <c r="H75" s="18">
-        <v>130.18</v>
+        <v>3614.24</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B76" s="4">
         <v>45733</v>
       </c>
       <c r="C76" s="5">
-        <v>789503</v>
+        <v>788905</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F76" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>LEN(E76)</f>
+        <v>11</v>
       </c>
       <c r="G76" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">7.899,82 </v>
+        <f>LEFT(E76,F76-1)</f>
+        <v xml:space="preserve">12.490,94 </v>
       </c>
       <c r="H76" s="18">
-        <v>7899.82</v>
+        <v>12490.94</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B77" s="4">
         <v>45733</v>
       </c>
       <c r="C77" s="5">
-        <v>789974</v>
+        <v>788905</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E77)</f>
         <v>10</v>
       </c>
       <c r="G77" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">1.705,65 </v>
+        <f>LEFT(E77,F77-1)</f>
+        <v xml:space="preserve">1.164,32 </v>
       </c>
       <c r="H77" s="18">
-        <v>1705.65</v>
+        <v>1164.32</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B78" s="4">
         <v>45733</v>
       </c>
       <c r="C78" s="5">
-        <v>789974</v>
+        <v>789503</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F78" s="11">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>LEN(E78)</f>
+        <v>10</v>
       </c>
       <c r="G78" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">11.234,58 </v>
+        <f>LEFT(E78,F78-1)</f>
+        <v xml:space="preserve">7.899,82 </v>
       </c>
       <c r="H78" s="18">
-        <v>11234.58</v>
+        <v>7899.82</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B79" s="4">
         <v>45733</v>
       </c>
       <c r="C79" s="5">
-        <v>790243</v>
+        <v>0</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>525</v>
+        <v>188</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>564</v>
       </c>
       <c r="F79" s="11">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>LEN(E79)</f>
+        <v>10</v>
       </c>
       <c r="G79" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">11.258,95 </v>
-      </c>
-      <c r="H79" s="18">
-        <v>11258.95</v>
+        <f>LEFT(E79,F79-1)</f>
+        <v xml:space="preserve">6.007,44 </v>
+      </c>
+      <c r="H79" s="19">
+        <v>6007.44</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="J79" s="26" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B80" s="4">
         <v>45733</v>
       </c>
       <c r="C80" s="5">
-        <v>791838</v>
+        <v>789503</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F80" s="11">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>LEN(E80)</f>
+        <v>8</v>
       </c>
       <c r="G80" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">12.490,95 </v>
+        <f>LEFT(E80,F80-1)</f>
+        <v xml:space="preserve">130,18 </v>
       </c>
       <c r="H80" s="18">
-        <v>12490.95</v>
+        <v>130.18</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B81" s="4">
         <v>45733</v>
       </c>
       <c r="C81" s="5">
-        <v>806686</v>
+        <v>789974</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F81" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E81)</f>
         <v>11</v>
       </c>
       <c r="G81" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">12.522,89 </v>
+        <f>LEFT(E81,F81-1)</f>
+        <v xml:space="preserve">11.234,58 </v>
       </c>
       <c r="H81" s="18">
-        <v>12522.89</v>
+        <v>11234.58</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B82" s="4">
         <v>45733</v>
       </c>
       <c r="C82" s="5">
-        <v>807797</v>
+        <v>789974</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F82" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E82)</f>
         <v>10</v>
       </c>
       <c r="G82" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">1.008,05 </v>
+        <f>LEFT(E82,F82-1)</f>
+        <v xml:space="preserve">1.705,65 </v>
       </c>
       <c r="H82" s="18">
-        <v>1008.05</v>
+        <v>1705.65</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B83" s="4">
         <v>45733</v>
       </c>
       <c r="C83" s="5">
-        <v>807797</v>
+        <v>790243</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>463</v>
+        <v>525</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E83)</f>
         <v>11</v>
       </c>
       <c r="G83" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">12.440,91 </v>
+        <f>LEFT(E83,F83-1)</f>
+        <v xml:space="preserve">11.258,95 </v>
       </c>
       <c r="H83" s="18">
-        <v>12440.91</v>
+        <v>11258.95</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B84" s="4">
         <v>45733</v>
       </c>
       <c r="C84" s="5">
-        <v>810180</v>
+        <v>791838</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E84)</f>
         <v>11</v>
       </c>
       <c r="G84" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">11.791,37 </v>
+        <f>LEFT(E84,F84-1)</f>
+        <v xml:space="preserve">12.490,95 </v>
       </c>
       <c r="H84" s="18">
-        <v>11791.37</v>
+        <v>12490.95</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B85" s="4">
         <v>45733</v>
       </c>
       <c r="C85" s="5">
-        <v>824340</v>
+        <v>806686</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E85)</f>
         <v>11</v>
       </c>
       <c r="G85" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">12.440,91 </v>
+        <f>LEFT(E85,F85-1)</f>
+        <v xml:space="preserve">12.522,89 </v>
       </c>
       <c r="H85" s="18">
-        <v>12440.91</v>
+        <v>12522.89</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B86" s="4">
         <v>45733</v>
       </c>
       <c r="C86" s="5">
-        <v>849859</v>
+        <v>807797</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>537</v>
+        <v>463</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E86)</f>
         <v>11</v>
       </c>
       <c r="G86" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">10.040,74 </v>
+        <f>LEFT(E86,F86-1)</f>
+        <v xml:space="preserve">12.440,91 </v>
       </c>
       <c r="H86" s="18">
-        <v>10040.74</v>
+        <v>12440.91</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B87" s="4">
         <v>45733</v>
       </c>
       <c r="C87" s="5">
-        <v>855622</v>
+        <v>807797</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>LEN(E87)</f>
+        <v>10</v>
       </c>
       <c r="G87" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">11.065,11 </v>
+        <f>LEFT(E87,F87-1)</f>
+        <v xml:space="preserve">1.008,05 </v>
       </c>
       <c r="H87" s="18">
-        <v>11065.11</v>
+        <v>1008.05</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B88" s="4">
         <v>45733</v>
       </c>
       <c r="C88" s="5">
-        <v>856248</v>
+        <v>810180</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>LEN(E88)</f>
+        <v>11</v>
       </c>
       <c r="G88" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">1.123,86 </v>
+        <f>LEFT(E88,F88-1)</f>
+        <v xml:space="preserve">11.791,37 </v>
       </c>
       <c r="H88" s="18">
-        <v>1123.8599999999999</v>
+        <v>11791.37</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B89" s="4">
         <v>45733</v>
       </c>
       <c r="C89" s="5">
-        <v>856248</v>
+        <v>0</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>543</v>
+        <v>176</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>LEN(E89)</f>
+        <v>10</v>
       </c>
       <c r="G89" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">11.658,71 </v>
-      </c>
-      <c r="H89" s="18">
-        <v>11658.71</v>
+        <f>LEFT(E89,F89-1)</f>
+        <v xml:space="preserve">1.440,00 </v>
+      </c>
+      <c r="H89" s="19">
+        <v>1440</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="J89" s="26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B90" s="4">
         <v>45733</v>
       </c>
       <c r="C90" s="5">
-        <v>861808</v>
+        <v>824340</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>545</v>
+        <v>463</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>LEN(E90)</f>
+        <v>11</v>
       </c>
       <c r="G90" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">324,92 </v>
+        <f>LEFT(E90,F90-1)</f>
+        <v xml:space="preserve">12.440,91 </v>
       </c>
       <c r="H90" s="18">
-        <v>324.92</v>
+        <v>12440.91</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B91" s="4">
         <v>45733</v>
       </c>
       <c r="C91" s="5">
-        <v>861808</v>
+        <v>849859</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E91)</f>
         <v>11</v>
       </c>
       <c r="G91" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">11.470,87 </v>
+        <f>LEFT(E91,F91-1)</f>
+        <v xml:space="preserve">10.040,74 </v>
       </c>
       <c r="H91" s="18">
-        <v>11470.87</v>
+        <v>10040.74</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B92" s="4">
         <v>45733</v>
       </c>
       <c r="C92" s="5">
-        <v>869261</v>
+        <v>855622</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F92" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E92)</f>
         <v>11</v>
       </c>
       <c r="G92" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">12.497,48 </v>
+        <f>LEFT(E92,F92-1)</f>
+        <v xml:space="preserve">11.065,11 </v>
       </c>
       <c r="H92" s="18">
-        <v>12497.48</v>
+        <v>11065.11</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B93" s="4">
         <v>45733</v>
       </c>
       <c r="C93" s="5">
-        <v>872731</v>
+        <v>856248</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E93)</f>
         <v>11</v>
       </c>
       <c r="G93" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">12.730,80 </v>
+        <f>LEFT(E93,F93-1)</f>
+        <v xml:space="preserve">11.658,71 </v>
       </c>
       <c r="H93" s="18">
-        <v>12730.8</v>
+        <v>11658.71</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B94" s="4">
-        <v>45733</v>
+        <v>45740</v>
       </c>
       <c r="C94" s="5">
-        <v>874469</v>
+        <v>220524</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>8</v>
+        <v>575</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>LEN(E94)</f>
+        <v>8</v>
       </c>
       <c r="G94" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">10.469,49 </v>
+        <f>LEFT(E94,F94-1)</f>
+        <v xml:space="preserve">795,01 </v>
       </c>
       <c r="H94" s="18">
-        <v>10469.49</v>
+        <v>795.01</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B95" s="4">
         <v>45733</v>
       </c>
       <c r="C95" s="5">
-        <v>885931</v>
+        <v>856248</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>LEN(E95)</f>
+        <v>10</v>
       </c>
       <c r="G95" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">11.838,49 </v>
+        <f>LEFT(E95,F95-1)</f>
+        <v xml:space="preserve">1.123,86 </v>
       </c>
       <c r="H95" s="18">
-        <v>11838.49</v>
+        <v>1123.8599999999999</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B96" s="4">
         <v>45733</v>
       </c>
       <c r="C96" s="5">
-        <v>895753</v>
+        <v>861808</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F96" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E96)</f>
         <v>11</v>
       </c>
       <c r="G96" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">13.069,85 </v>
+        <f>LEFT(E96,F96-1)</f>
+        <v xml:space="preserve">11.470,87 </v>
       </c>
       <c r="H96" s="18">
-        <v>13069.85</v>
+        <v>11470.87</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B97" s="4">
         <v>45733</v>
       </c>
       <c r="C97" s="5">
-        <v>951769</v>
+        <v>861808</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F97" s="11">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>LEN(E97)</f>
+        <v>8</v>
       </c>
       <c r="G97" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">15.000,49 </v>
+        <f>LEFT(E97,F97-1)</f>
+        <v xml:space="preserve">324,92 </v>
       </c>
       <c r="H97" s="18">
-        <v>15000.49</v>
+        <v>324.92</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B98" s="4">
         <v>45733</v>
       </c>
       <c r="C98" s="5">
-        <v>0</v>
+        <v>869261</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>561</v>
+        <v>8</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>549</v>
       </c>
       <c r="F98" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E98)</f>
         <v>11</v>
       </c>
       <c r="G98" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">14.162,91 </v>
-      </c>
-      <c r="H98" s="19">
-        <v>14162.91</v>
+        <f>LEFT(E98,F98-1)</f>
+        <v xml:space="preserve">12.497,48 </v>
+      </c>
+      <c r="H98" s="18">
+        <v>12497.48</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="J98" s="26" t="s">
-        <v>594</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B99" s="4">
         <v>45733</v>
       </c>
       <c r="C99" s="5">
-        <v>0</v>
+        <v>872731</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>177</v>
+        <v>8</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>551</v>
       </c>
       <c r="F99" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>LEN(E99)</f>
+        <v>11</v>
       </c>
       <c r="G99" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">1.440,00 </v>
-      </c>
-      <c r="H99" s="19">
-        <v>1440</v>
+        <f>LEFT(E99,F99-1)</f>
+        <v xml:space="preserve">12.730,80 </v>
+      </c>
+      <c r="H99" s="18">
+        <v>12730.8</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="J99" s="26" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B100" s="4">
         <v>45733</v>
       </c>
       <c r="C100" s="5">
-        <v>0</v>
+        <v>874469</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>564</v>
+        <v>8</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>553</v>
       </c>
       <c r="F100" s="11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>LEN(E100)</f>
+        <v>11</v>
       </c>
       <c r="G100" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">6.007,44 </v>
-      </c>
-      <c r="H100" s="19">
-        <v>6007.44</v>
+        <f>LEFT(E100,F100-1)</f>
+        <v xml:space="preserve">10.469,49 </v>
+      </c>
+      <c r="H100" s="18">
+        <v>10469.49</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="J100" s="26" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B101" s="4">
         <v>45733</v>
       </c>
       <c r="C101" s="5">
-        <v>0</v>
+        <v>885931</v>
       </c>
       <c r="D101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F101" s="11">
+        <f>LEN(E101)</f>
         <v>11</v>
       </c>
-      <c r="E101" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
       <c r="G101" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0,00 </v>
+        <f>LEFT(E101,F101-1)</f>
+        <v xml:space="preserve">11.838,49 </v>
       </c>
       <c r="H101" s="18">
-        <v>0</v>
+        <v>11838.49</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B102" s="4">
-        <v>45734</v>
-      </c>
-      <c r="C102" s="8">
-        <v>477079</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>389</v>
+        <v>45733</v>
+      </c>
+      <c r="C102" s="5">
+        <v>895753</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>557</v>
       </c>
       <c r="F102" s="11">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>LEN(E102)</f>
+        <v>11</v>
       </c>
       <c r="G102" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">300.000,00 </v>
-      </c>
-      <c r="H102" s="19">
-        <v>300000</v>
+        <f>LEFT(E102,F102-1)</f>
+        <v xml:space="preserve">13.069,85 </v>
+      </c>
+      <c r="H102" s="18">
+        <v>13069.85</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B103" s="4">
-        <v>45734</v>
-      </c>
-      <c r="C103" s="8">
-        <v>489757</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>567</v>
+        <v>45733</v>
+      </c>
+      <c r="C103" s="5">
+        <v>951769</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>559</v>
       </c>
       <c r="F103" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E103)</f>
         <v>11</v>
       </c>
       <c r="G103" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">55.000,00 </v>
-      </c>
-      <c r="H103" s="19">
-        <v>55000</v>
+        <f>LEFT(E103,F103-1)</f>
+        <v xml:space="preserve">15.000,49 </v>
+      </c>
+      <c r="H103" s="18">
+        <v>15000.49</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B104" s="4">
-        <v>45734</v>
+        <v>45741</v>
       </c>
       <c r="C104" s="5">
-        <v>764647</v>
+        <v>202502</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>569</v>
+        <v>221</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="F104" s="11">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>LEN(E104)</f>
+        <v>8</v>
       </c>
       <c r="G104" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">385.006,39 </v>
-      </c>
-      <c r="H104" s="18">
-        <v>385006.39</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="J104" s="31" t="s">
-        <v>598</v>
+        <f>LEFT(E104,F104-1)</f>
+        <v xml:space="preserve">125,00 </v>
+      </c>
+      <c r="H104" s="19">
+        <v>125</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B105" s="4">
-        <v>45734</v>
+        <v>45741</v>
       </c>
       <c r="C105" s="5">
         <v>0</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>12</v>
+        <v>174</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>585</v>
       </c>
       <c r="F105" s="11">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>LEN(E105)</f>
+        <v>7</v>
       </c>
       <c r="G105" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0,00 </v>
-      </c>
-      <c r="H105" s="18">
-        <v>0</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>570</v>
+        <f>LEFT(E105,F105-1)</f>
+        <v xml:space="preserve">27,39 </v>
+      </c>
+      <c r="H105" s="19">
+        <v>27.39</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="J105" s="26" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B106" s="4">
-        <v>45735</v>
+        <v>45740</v>
       </c>
       <c r="C106" s="5">
-        <v>0</v>
+        <v>220524</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>172</v>
+        <v>577</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="F106" s="11">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>LEN(E106)</f>
+        <v>6</v>
       </c>
       <c r="G106" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">833.386,83 </v>
+        <f>LEFT(E106,F106-1)</f>
+        <v xml:space="preserve">7,07 </v>
       </c>
       <c r="H106" s="19">
-        <v>833386.83</v>
+        <v>7.07</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>12</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="B107" s="4">
-        <v>45735</v>
+        <v>45721</v>
       </c>
       <c r="C107" s="5">
         <v>0</v>
@@ -14393,11 +14417,11 @@
         <v>12</v>
       </c>
       <c r="F107" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E107)</f>
         <v>6</v>
       </c>
       <c r="G107" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(E107,F107-1)</f>
         <v xml:space="preserve">0,00 </v>
       </c>
       <c r="H107" s="18">
@@ -14409,92 +14433,92 @@
     </row>
     <row r="108" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B108" s="4">
-        <v>45736</v>
-      </c>
-      <c r="C108" s="8">
-        <v>100947</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>572</v>
+        <v>45722</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F108" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E108)</f>
+        <v>6</v>
+      </c>
+      <c r="G108" s="11" t="str">
+        <f>LEFT(E108,F108-1)</f>
+        <v xml:space="preserve">0,00 </v>
+      </c>
+      <c r="H108" s="18">
+        <v>0</v>
+      </c>
+      <c r="I108" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="G108" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">100.000,00 </v>
-      </c>
-      <c r="H108" s="19">
-        <v>100000</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="B109" s="4">
-        <v>45736</v>
-      </c>
-      <c r="C109" s="8">
-        <v>207651</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>572</v>
+        <v>45723</v>
+      </c>
+      <c r="C109" s="5">
+        <v>0</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F109" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E109)</f>
+        <v>6</v>
+      </c>
+      <c r="G109" s="11" t="str">
+        <f>LEFT(E109,F109-1)</f>
+        <v xml:space="preserve">0,00 </v>
+      </c>
+      <c r="H109" s="18">
+        <v>0</v>
+      </c>
+      <c r="I109" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="G109" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">100.000,00 </v>
-      </c>
-      <c r="H109" s="19">
-        <v>100000</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B110" s="4">
-        <v>45736</v>
+        <v>45726</v>
       </c>
       <c r="C110" s="5">
         <v>0</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>574</v>
+        <v>12</v>
       </c>
       <c r="F110" s="11">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>LEN(E110)</f>
+        <v>6</v>
       </c>
       <c r="G110" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">200.000,00 </v>
+        <f>LEFT(E110,F110-1)</f>
+        <v xml:space="preserve">0,00 </v>
       </c>
       <c r="H110" s="18">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>12</v>
@@ -14502,10 +14526,10 @@
     </row>
     <row r="111" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="B111" s="4">
-        <v>45736</v>
+        <v>45727</v>
       </c>
       <c r="C111" s="5">
         <v>0</v>
@@ -14517,11 +14541,11 @@
         <v>12</v>
       </c>
       <c r="F111" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E111)</f>
         <v>6</v>
       </c>
       <c r="G111" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(E111,F111-1)</f>
         <v xml:space="preserve">0,00 </v>
       </c>
       <c r="H111" s="18">
@@ -14533,10 +14557,10 @@
     </row>
     <row r="112" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="B112" s="4">
-        <v>45737</v>
+        <v>45728</v>
       </c>
       <c r="C112" s="5">
         <v>0</v>
@@ -14548,11 +14572,11 @@
         <v>12</v>
       </c>
       <c r="F112" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E112)</f>
         <v>6</v>
       </c>
       <c r="G112" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(E112,F112-1)</f>
         <v xml:space="preserve">0,00 </v>
       </c>
       <c r="H112" s="18">
@@ -14562,136 +14586,136 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="B113" s="4">
-        <v>45740</v>
+        <v>45729</v>
       </c>
       <c r="C113" s="5">
-        <v>220524</v>
+        <v>0</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>575</v>
+        <v>11</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>576</v>
+        <v>12</v>
       </c>
       <c r="F113" s="11">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>LEN(E113)</f>
+        <v>6</v>
       </c>
       <c r="G113" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">795,01 </v>
+        <f>LEFT(E113,F113-1)</f>
+        <v xml:space="preserve">0,00 </v>
       </c>
       <c r="H113" s="18">
-        <v>795.01</v>
+        <v>0</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="B114" s="4">
-        <v>45740</v>
+        <v>45730</v>
       </c>
       <c r="C114" s="5">
-        <v>220524</v>
+        <v>0</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>578</v>
+        <v>11</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F114" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E114)</f>
         <v>6</v>
       </c>
       <c r="G114" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">7,07 </v>
-      </c>
-      <c r="H114" s="19">
-        <v>7.07</v>
+        <f>LEFT(E114,F114-1)</f>
+        <v xml:space="preserve">0,00 </v>
+      </c>
+      <c r="H114" s="18">
+        <v>0</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B115" s="4">
-        <v>45740</v>
-      </c>
-      <c r="C115" s="8">
-        <v>297920</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>580</v>
+        <v>45733</v>
+      </c>
+      <c r="C115" s="5">
+        <v>0</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F115" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E115)</f>
+        <v>6</v>
+      </c>
+      <c r="G115" s="11" t="str">
+        <f>LEFT(E115,F115-1)</f>
+        <v xml:space="preserve">0,00 </v>
+      </c>
+      <c r="H115" s="18">
+        <v>0</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>101</v>
+      </c>
+      <c r="B116" s="4">
+        <v>45734</v>
+      </c>
+      <c r="C116" s="5">
+        <v>0</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G115" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">130.000,00 </v>
-      </c>
-      <c r="H115" s="19">
-        <v>130000</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>112</v>
-      </c>
-      <c r="B116" s="4">
-        <v>45740</v>
-      </c>
-      <c r="C116" s="5">
-        <v>0</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>582</v>
-      </c>
       <c r="F116" s="11">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>LEN(E116)</f>
+        <v>6</v>
       </c>
       <c r="G116" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">129.212,06 </v>
+        <f>LEFT(E116,F116-1)</f>
+        <v xml:space="preserve">0,00 </v>
       </c>
       <c r="H116" s="18">
-        <v>129212.06</v>
+        <v>0</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B117" s="4">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="C117" s="5">
         <v>0</v>
@@ -14703,11 +14727,11 @@
         <v>12</v>
       </c>
       <c r="F117" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E117)</f>
         <v>6</v>
       </c>
       <c r="G117" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(E117,F117-1)</f>
         <v xml:space="preserve">0,00 </v>
       </c>
       <c r="H117" s="18">
@@ -14717,105 +14741,102 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B118" s="4">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="C118" s="5">
-        <v>202502</v>
+        <v>0</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F118" s="11">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>LEN(E118)</f>
+        <v>6</v>
       </c>
       <c r="G118" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">125,00 </v>
-      </c>
-      <c r="H118" s="19">
-        <v>125</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>LEFT(E118,F118-1)</f>
+        <v xml:space="preserve">0,00 </v>
+      </c>
+      <c r="H118" s="18">
+        <v>0</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B119" s="4">
-        <v>45741</v>
-      </c>
-      <c r="C119" s="8">
-        <v>977994</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>583</v>
+        <v>45737</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F119" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E119)</f>
+        <v>6</v>
+      </c>
+      <c r="G119" s="11" t="str">
+        <f>LEFT(E119,F119-1)</f>
+        <v xml:space="preserve">0,00 </v>
+      </c>
+      <c r="H119" s="18">
+        <v>0</v>
+      </c>
+      <c r="I119" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G119" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">504.000,00 </v>
-      </c>
-      <c r="H119" s="19">
-        <v>504000</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B120" s="4">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="C120" s="5">
         <v>0</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>585</v>
+        <v>11</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F120" s="11">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>LEN(E120)</f>
+        <v>6</v>
       </c>
       <c r="G120" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">27,39 </v>
-      </c>
-      <c r="H120" s="19">
-        <v>27.39</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="J120" s="26" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>LEFT(E120,F120-1)</f>
+        <v xml:space="preserve">0,00 </v>
+      </c>
+      <c r="H120" s="18">
+        <v>0</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B121" s="4">
         <v>45741</v>
@@ -14824,32 +14845,32 @@
         <v>0</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>587</v>
+        <v>12</v>
       </c>
       <c r="F121" s="11">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>LEN(E121)</f>
+        <v>6</v>
       </c>
       <c r="G121" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">504.152,39 </v>
+        <f>LEFT(E121,F121-1)</f>
+        <v xml:space="preserve">0,00 </v>
       </c>
       <c r="H121" s="18">
-        <v>504152.39</v>
+        <v>0</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B122" s="4">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="C122" s="5">
         <v>0</v>
@@ -14861,11 +14882,11 @@
         <v>12</v>
       </c>
       <c r="F122" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E122)</f>
         <v>6</v>
       </c>
       <c r="G122" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(E122,F122-1)</f>
         <v xml:space="preserve">0,00 </v>
       </c>
       <c r="H122" s="18">
@@ -14875,12 +14896,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B123" s="4">
-        <v>45742</v>
+        <v>45743</v>
       </c>
       <c r="C123" s="5">
         <v>0</v>
@@ -14892,11 +14913,11 @@
         <v>12</v>
       </c>
       <c r="F123" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E123)</f>
         <v>6</v>
       </c>
       <c r="G123" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(E123,F123-1)</f>
         <v xml:space="preserve">0,00 </v>
       </c>
       <c r="H123" s="18">
@@ -14906,12 +14927,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B124" s="4">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="C124" s="5">
         <v>0</v>
@@ -14923,11 +14944,11 @@
         <v>12</v>
       </c>
       <c r="F124" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E124)</f>
         <v>6</v>
       </c>
       <c r="G124" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(E124,F124-1)</f>
         <v xml:space="preserve">0,00 </v>
       </c>
       <c r="H124" s="18">
@@ -14937,12 +14958,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B125" s="4">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="C125" s="5">
         <v>0</v>
@@ -14954,11 +14975,11 @@
         <v>12</v>
       </c>
       <c r="F125" s="11">
-        <f t="shared" si="2"/>
+        <f>LEN(E125)</f>
         <v>6</v>
       </c>
       <c r="G125" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>LEFT(E125,F125-1)</f>
         <v xml:space="preserve">0,00 </v>
       </c>
       <c r="H125" s="18">
@@ -14968,55 +14989,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>122</v>
-      </c>
-      <c r="B126" s="9">
-        <v>45747</v>
-      </c>
-      <c r="C126" s="3">
-        <v>0</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="36">
+        <v>45721</v>
+      </c>
+      <c r="C126" s="37">
+        <v>0</v>
+      </c>
+      <c r="D126" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="E126" s="38">
+        <v>0</v>
+      </c>
+      <c r="F126" s="11">
+        <f>LEN(E126)</f>
+        <v>1</v>
+      </c>
+      <c r="G126" s="11" t="str">
+        <f>LEFT(E126,F126-1)</f>
+        <v/>
+      </c>
+      <c r="H126" s="39"/>
+      <c r="I126" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="11">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G126" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0,00 </v>
-      </c>
-      <c r="H126" s="20">
-        <v>0</v>
-      </c>
-      <c r="I126" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H128" s="32">
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H128" s="31">
         <f>SUM(H14:H97)</f>
-        <v>824990.78999999992</v>
+        <v>926789.54999999993</v>
       </c>
       <c r="I128" s="22"/>
     </row>
     <row r="129" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H129" s="35">
+      <c r="H129" s="34">
         <f>H104</f>
-        <v>385006.39</v>
-      </c>
-      <c r="I129" s="33"/>
+        <v>125</v>
+      </c>
+      <c r="I129" s="32"/>
     </row>
     <row r="130" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H130" s="34">
+      <c r="H130" s="33">
         <f>H128+H129</f>
-        <v>1209997.18</v>
+        <v>926914.54999999993</v>
       </c>
       <c r="I130" s="28" t="s">
         <v>599</v>
@@ -15025,7 +15044,7 @@
     <row r="132" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H132" s="29">
         <f>H98+H99+H100+H120</f>
-        <v>21637.739999999998</v>
+        <v>35697.769999999997</v>
       </c>
       <c r="I132" s="26" t="s">
         <v>595</v>
@@ -15033,44 +15052,125 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:J126" xr:uid="{BF196589-682C-4992-B1A9-0E9478BEC5EF}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="102175"/>
+        <filter val="12311"/>
+        <filter val="12512"/>
+        <filter val="249744"/>
+        <filter val="249792"/>
+        <filter val="249973"/>
+        <filter val="250115"/>
+        <filter val="250140"/>
+        <filter val="250188"/>
+        <filter val="250440"/>
+        <filter val="251132"/>
+        <filter val="251134"/>
+        <filter val="251247"/>
+        <filter val="254390"/>
+        <filter val="262040"/>
+        <filter val="279836"/>
+        <filter val="287582"/>
+        <filter val="292437"/>
+        <filter val="296895"/>
+        <filter val="299493"/>
+        <filter val="65937"/>
+        <filter val="783642"/>
+        <filter val="783838"/>
+        <filter val="784415"/>
+        <filter val="784545"/>
+        <filter val="784787"/>
+        <filter val="785462"/>
+        <filter val="785483"/>
+        <filter val="785568"/>
+        <filter val="785787"/>
+        <filter val="785933"/>
+        <filter val="786173"/>
+        <filter val="786220"/>
+        <filter val="786283"/>
+        <filter val="786796"/>
+        <filter val="786845"/>
+        <filter val="787101"/>
+        <filter val="787456"/>
+        <filter val="787935"/>
+        <filter val="787939"/>
+        <filter val="787944"/>
+        <filter val="788456"/>
+        <filter val="788598"/>
+        <filter val="788905"/>
+        <filter val="789503"/>
+        <filter val="789974"/>
+        <filter val="790243"/>
+        <filter val="791838"/>
+        <filter val="806686"/>
+        <filter val="807797"/>
+        <filter val="810180"/>
+        <filter val="824340"/>
+        <filter val="849859"/>
+        <filter val="855622"/>
+        <filter val="856248"/>
+        <filter val="861808"/>
+        <filter val="869261"/>
+        <filter val="872731"/>
+        <filter val="874469"/>
+        <filter val="885931"/>
+        <filter val="895753"/>
+        <filter val="951769"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="CR DESBLOQ"/>
-        <filter val="DEB FIADOR"/>
-        <filter val="PREST HAB"/>
-        <filter val="TCCMO"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:J103">
+      <sortCondition ref="C4:C126"/>
+    </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C102" r:id="rId1" display="javascript:abreLinkTed('477079', '18/03/2025', '300.000,00', 'ENVIO TED');" xr:uid="{464DFC05-B1CA-4C3A-8096-BAF35B92E176}"/>
-    <hyperlink ref="D102" r:id="rId2" display="javascript:abreLinkTed('477079', '18/03/2025', '300.000,00', 'ENVIO TED');" xr:uid="{30EFFFCF-D7D7-48F7-8717-D7361FBE4C99}"/>
-    <hyperlink ref="C103" r:id="rId3" display="javascript:abreLinkTed('489757', '18/03/2025', '55.000,00', 'ENVIO TED');" xr:uid="{5613EA5F-D77D-4A8E-8D17-8E600D72E0CC}"/>
-    <hyperlink ref="D103" r:id="rId4" display="javascript:abreLinkTed('489757', '18/03/2025', '55.000,00', 'ENVIO TED');" xr:uid="{553E475A-5072-481E-AFB6-808A46BDA2B7}"/>
-    <hyperlink ref="C108" r:id="rId5" display="javascript:abreLinkTed('100947', '20/03/2025', '100.000,00', 'ENVIO TED');" xr:uid="{60FBDF5D-AEC0-42D4-984A-5B5B8142B115}"/>
-    <hyperlink ref="D108" r:id="rId6" display="javascript:abreLinkTed('100947', '20/03/2025', '100.000,00', 'ENVIO TED');" xr:uid="{9E3EE932-4D99-457F-9974-40B0F3C500F1}"/>
-    <hyperlink ref="C109" r:id="rId7" display="javascript:abreLinkTed('207651', '20/03/2025', '100.000,00', 'ENVIO TED');" xr:uid="{522F9F4F-2DFF-4BC9-8F75-BD90A478AE3D}"/>
-    <hyperlink ref="D109" r:id="rId8" display="javascript:abreLinkTed('207651', '20/03/2025', '100.000,00', 'ENVIO TED');" xr:uid="{066D41B5-6F9C-44E5-A28F-253BF2BE4981}"/>
-    <hyperlink ref="C115" r:id="rId9" display="javascript:abreLinkTed('297920', '24/03/2025', '130.000,00', 'ENVIO TED');" xr:uid="{C7AA834E-CE7B-4789-A114-8C5890BBDDF3}"/>
-    <hyperlink ref="D115" r:id="rId10" display="javascript:abreLinkTed('297920', '24/03/2025', '130.000,00', 'ENVIO TED');" xr:uid="{DA8E7D35-597A-4978-9286-6BBC072A9EFC}"/>
-    <hyperlink ref="C119" r:id="rId11" display="javascript:abreLinkTed('977994', '25/03/2025', '504.000,00', 'ENVIO TED');" xr:uid="{5CA363AC-8F90-4D13-A48C-6F0C6D8D1DE3}"/>
-    <hyperlink ref="D119" r:id="rId12" display="javascript:abreLinkTed('977994', '25/03/2025', '504.000,00', 'ENVIO TED');" xr:uid="{6C094DD1-837F-4188-8928-FE7FDC66DBC9}"/>
+    <hyperlink ref="C9" r:id="rId1" display="javascript:abreLinkTed('477079', '18/03/2025', '300.000,00', 'ENVIO TED');" xr:uid="{464DFC05-B1CA-4C3A-8096-BAF35B92E176}"/>
+    <hyperlink ref="D9" r:id="rId2" display="javascript:abreLinkTed('477079', '18/03/2025', '300.000,00', 'ENVIO TED');" xr:uid="{30EFFFCF-D7D7-48F7-8717-D7361FBE4C99}"/>
+    <hyperlink ref="C15" r:id="rId3" display="javascript:abreLinkTed('489757', '18/03/2025', '55.000,00', 'ENVIO TED');" xr:uid="{5613EA5F-D77D-4A8E-8D17-8E600D72E0CC}"/>
+    <hyperlink ref="D15" r:id="rId4" display="javascript:abreLinkTed('489757', '18/03/2025', '55.000,00', 'ENVIO TED');" xr:uid="{553E475A-5072-481E-AFB6-808A46BDA2B7}"/>
+    <hyperlink ref="C13" r:id="rId5" display="javascript:abreLinkTed('100947', '20/03/2025', '100.000,00', 'ENVIO TED');" xr:uid="{60FBDF5D-AEC0-42D4-984A-5B5B8142B115}"/>
+    <hyperlink ref="D13" r:id="rId6" display="javascript:abreLinkTed('100947', '20/03/2025', '100.000,00', 'ENVIO TED');" xr:uid="{9E3EE932-4D99-457F-9974-40B0F3C500F1}"/>
+    <hyperlink ref="C14" r:id="rId7" display="javascript:abreLinkTed('207651', '20/03/2025', '100.000,00', 'ENVIO TED');" xr:uid="{522F9F4F-2DFF-4BC9-8F75-BD90A478AE3D}"/>
+    <hyperlink ref="D14" r:id="rId8" display="javascript:abreLinkTed('207651', '20/03/2025', '100.000,00', 'ENVIO TED');" xr:uid="{066D41B5-6F9C-44E5-A28F-253BF2BE4981}"/>
+    <hyperlink ref="C11" r:id="rId9" display="javascript:abreLinkTed('297920', '24/03/2025', '130.000,00', 'ENVIO TED');" xr:uid="{C7AA834E-CE7B-4789-A114-8C5890BBDDF3}"/>
+    <hyperlink ref="D11" r:id="rId10" display="javascript:abreLinkTed('297920', '24/03/2025', '130.000,00', 'ENVIO TED');" xr:uid="{DA8E7D35-597A-4978-9286-6BBC072A9EFC}"/>
+    <hyperlink ref="C7" r:id="rId11" display="javascript:abreLinkTed('977994', '25/03/2025', '504.000,00', 'ENVIO TED');" xr:uid="{5CA363AC-8F90-4D13-A48C-6F0C6D8D1DE3}"/>
+    <hyperlink ref="D7" r:id="rId12" display="javascript:abreLinkTed('977994', '25/03/2025', '504.000,00', 'ENVIO TED');" xr:uid="{6C094DD1-837F-4188-8928-FE7FDC66DBC9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006C56FB2846673243A9735D5EC6051572" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="941ba21155b641a9d77936be19967558">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5a5f483f-f768-438e-b4ef-63f46a7558dd" xmlns:ns3="dd8c73df-45bd-468c-aae5-f3faedcbd5e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="469d177505629adaca6589b93d36bf5c" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5a5f483f-f768-438e-b4ef-63f46a7558dd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="dd8c73df-45bd-468c-aae5-f3faedcbd5e2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006C56FB2846673243A9735D5EC6051572" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="36569ac63cfce8ff0f8884bc80e67f1c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5a5f483f-f768-438e-b4ef-63f46a7558dd" xmlns:ns3="dd8c73df-45bd-468c-aae5-f3faedcbd5e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2040da04b75a9ea4fe796fa8180f8ca6" ns2:_="" ns3:_="">
     <xsd:import namespace="5a5f483f-f768-438e-b4ef-63f46a7558dd"/>
     <xsd:import namespace="dd8c73df-45bd-468c-aae5-f3faedcbd5e2"/>
     <xsd:element name="properties">
@@ -15263,41 +15363,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5a5f483f-f768-438e-b4ef-63f46a7558dd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dd8c73df-45bd-468c-aae5-f3faedcbd5e2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3F8109-51B1-4692-864E-6B54FF554F65}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0825223-2C7D-4797-A314-F6957DB6A27A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="5a5f483f-f768-438e-b4ef-63f46a7558dd"/>
     <ds:schemaRef ds:uri="dd8c73df-45bd-468c-aae5-f3faedcbd5e2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15311,12 +15383,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0825223-2C7D-4797-A314-F6957DB6A27A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5a5f483f-f768-438e-b4ef-63f46a7558dd"/>
-    <ds:schemaRef ds:uri="dd8c73df-45bd-468c-aae5-f3faedcbd5e2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60C4F989-A1FB-42B7-80E5-14B581581DE4}"/>
 </file>